--- a/resources/data-imports/items/spells.xlsx
+++ b/resources/data-imports/items/spells.xlsx
@@ -1,21 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/items/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A6F086-774B-8B4B-94AC-0FA92E22542A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Items" sheetId="1" r:id="rId4"/>
+    <sheet name="Items" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="310">
   <si>
     <t>id</t>
   </si>
@@ -950,14 +967,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -972,21 +984,33 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1276,86 +1300,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="N83" workbookViewId="0">
+      <selection activeCell="AB122" sqref="AB122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="150" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="28" max="28" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="25" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="29" bestFit="true" customWidth="true" style="0"/>
-    <col min="36" max="36" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="37" max="37" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="38" max="38" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="39" max="39" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="40" max="40" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="41" max="41" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="42" max="42" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="43" max="43" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="44" max="44" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="45" max="45" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="46" max="46" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="47" max="47" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="48" max="48" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="49" max="49" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="50" max="50" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="51" max="51" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="52" max="52" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="53" max="53" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="54" max="54" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="55" max="55" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="56" max="56" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="57" max="57" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="58" max="58" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="59" max="59" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="60" max="60" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="61" max="61" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="62" max="62" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="63" max="63" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="64" max="64" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="65" max="65" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="150" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="28" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="38" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="26" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="22" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="19" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="26" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="21" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="17" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1552,7 +1568,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:65">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>151</v>
       </c>
@@ -1572,10 +1588,10 @@
         <v>10</v>
       </c>
       <c r="T2">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="W2">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -1596,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:65">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>152</v>
       </c>
@@ -1616,10 +1632,10 @@
         <v>25</v>
       </c>
       <c r="T3">
-        <v>0.0107</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="W3">
-        <v>0.0107</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -1640,13 +1656,13 @@
         <v>1</v>
       </c>
       <c r="AW3">
-        <v>0.0007</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="BI3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:65">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>153</v>
       </c>
@@ -1666,10 +1682,10 @@
         <v>75</v>
       </c>
       <c r="T4">
-        <v>0.0163</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="W4">
-        <v>0.0163</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -1690,13 +1706,13 @@
         <v>1</v>
       </c>
       <c r="AW4">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="BI4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:65">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>154</v>
       </c>
@@ -1716,10 +1732,10 @@
         <v>150</v>
       </c>
       <c r="T5">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="W5">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -1740,13 +1756,13 @@
         <v>1</v>
       </c>
       <c r="AW5">
-        <v>0.0009</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="BI5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:65">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>155</v>
       </c>
@@ -1766,10 +1782,10 @@
         <v>250</v>
       </c>
       <c r="T6">
-        <v>0.0276</v>
+        <v>2.76E-2</v>
       </c>
       <c r="W6">
-        <v>0.0276</v>
+        <v>2.76E-2</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -1790,13 +1806,13 @@
         <v>1</v>
       </c>
       <c r="AW6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="BI6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:65">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>156</v>
       </c>
@@ -1816,10 +1832,10 @@
         <v>500</v>
       </c>
       <c r="T7">
-        <v>0.0333</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="W7">
-        <v>0.0333</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -1840,13 +1856,13 @@
         <v>1</v>
       </c>
       <c r="AW7">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="BI7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:65">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>157</v>
       </c>
@@ -1866,10 +1882,10 @@
         <v>750</v>
       </c>
       <c r="T8">
-        <v>0.0389</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="W8">
-        <v>0.0389</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -1890,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="AW8">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="BI8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:65">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>158</v>
       </c>
@@ -1916,10 +1932,10 @@
         <v>1000</v>
       </c>
       <c r="T9">
-        <v>0.0446</v>
+        <v>4.4600000000000001E-2</v>
       </c>
       <c r="W9">
-        <v>0.0446</v>
+        <v>4.4600000000000001E-2</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -1937,13 +1953,13 @@
         <v>1</v>
       </c>
       <c r="AW9">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="BI9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:65">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>159</v>
       </c>
@@ -1963,10 +1979,10 @@
         <v>1500</v>
       </c>
       <c r="T10">
-        <v>0.0502</v>
+        <v>5.0200000000000002E-2</v>
       </c>
       <c r="W10">
-        <v>0.0502</v>
+        <v>5.0200000000000002E-2</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -1984,13 +2000,13 @@
         <v>1</v>
       </c>
       <c r="AW10">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="BI10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:65">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>160</v>
       </c>
@@ -2010,10 +2026,10 @@
         <v>3000</v>
       </c>
       <c r="T11">
-        <v>0.0559</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="W11">
-        <v>0.0559</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -2031,13 +2047,13 @@
         <v>1</v>
       </c>
       <c r="AW11">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="BI11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:65">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>161</v>
       </c>
@@ -2057,10 +2073,10 @@
         <v>5000</v>
       </c>
       <c r="T12">
-        <v>0.0616</v>
+        <v>6.1600000000000002E-2</v>
       </c>
       <c r="W12">
-        <v>0.0616</v>
+        <v>6.1600000000000002E-2</v>
       </c>
       <c r="Y12">
         <v>1</v>
@@ -2078,13 +2094,13 @@
         <v>1</v>
       </c>
       <c r="AW12">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="BI12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:65">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>162</v>
       </c>
@@ -2104,10 +2120,10 @@
         <v>7000</v>
       </c>
       <c r="T13">
-        <v>0.0672</v>
+        <v>6.7199999999999996E-2</v>
       </c>
       <c r="W13">
-        <v>0.0672</v>
+        <v>6.7199999999999996E-2</v>
       </c>
       <c r="Y13">
         <v>1</v>
@@ -2125,13 +2141,13 @@
         <v>1</v>
       </c>
       <c r="AW13">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="BI13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:65">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>163</v>
       </c>
@@ -2151,10 +2167,10 @@
         <v>10000</v>
       </c>
       <c r="T14">
-        <v>0.0729</v>
+        <v>7.2900000000000006E-2</v>
       </c>
       <c r="W14">
-        <v>0.0729</v>
+        <v>7.2900000000000006E-2</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -2178,7 +2194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:65">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>164</v>
       </c>
@@ -2198,10 +2214,10 @@
         <v>15000</v>
       </c>
       <c r="T15">
-        <v>0.0785</v>
+        <v>7.85E-2</v>
       </c>
       <c r="W15">
-        <v>0.0785</v>
+        <v>7.85E-2</v>
       </c>
       <c r="Y15">
         <v>1</v>
@@ -2225,7 +2241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:65">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>165</v>
       </c>
@@ -2245,10 +2261,10 @@
         <v>30000</v>
       </c>
       <c r="T16">
-        <v>0.0842</v>
+        <v>8.4199999999999997E-2</v>
       </c>
       <c r="W16">
-        <v>0.0842</v>
+        <v>8.4199999999999997E-2</v>
       </c>
       <c r="Y16">
         <v>1</v>
@@ -2272,7 +2288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:65">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>166</v>
       </c>
@@ -2292,10 +2308,10 @@
         <v>60000</v>
       </c>
       <c r="T17">
-        <v>0.0898</v>
+        <v>8.9800000000000005E-2</v>
       </c>
       <c r="W17">
-        <v>0.0898</v>
+        <v>8.9800000000000005E-2</v>
       </c>
       <c r="Y17">
         <v>1</v>
@@ -2319,7 +2335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:65">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>393</v>
       </c>
@@ -2339,10 +2355,10 @@
         <v>120000</v>
       </c>
       <c r="T18">
-        <v>0.0955</v>
+        <v>9.5500000000000002E-2</v>
       </c>
       <c r="W18">
-        <v>0.0955</v>
+        <v>9.5500000000000002E-2</v>
       </c>
       <c r="Y18">
         <v>1</v>
@@ -2366,7 +2382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:65">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>404</v>
       </c>
@@ -2413,7 +2429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:65">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>415</v>
       </c>
@@ -2433,10 +2449,10 @@
         <v>240000</v>
       </c>
       <c r="T20">
-        <v>0.1068</v>
+        <v>0.10680000000000001</v>
       </c>
       <c r="W20">
-        <v>0.1068</v>
+        <v>0.10680000000000001</v>
       </c>
       <c r="Y20">
         <v>1</v>
@@ -2454,13 +2470,13 @@
         <v>1</v>
       </c>
       <c r="AW20">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BI20">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:65">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>439</v>
       </c>
@@ -2507,7 +2523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:65">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>534</v>
       </c>
@@ -2554,7 +2570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:65">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>535</v>
       </c>
@@ -2574,10 +2590,10 @@
         <v>500000</v>
       </c>
       <c r="T23">
-        <v>0.1238</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="W23">
-        <v>0.1238</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="Y23">
         <v>1</v>
@@ -2601,7 +2617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:65">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>536</v>
       </c>
@@ -2621,10 +2637,10 @@
         <v>1000000</v>
       </c>
       <c r="T24">
-        <v>0.1294</v>
+        <v>0.12939999999999999</v>
       </c>
       <c r="W24">
-        <v>0.1294</v>
+        <v>0.12939999999999999</v>
       </c>
       <c r="Y24">
         <v>1</v>
@@ -2648,7 +2664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:65">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>537</v>
       </c>
@@ -2695,7 +2711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:65">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>616</v>
       </c>
@@ -2715,10 +2731,10 @@
         <v>25000000</v>
       </c>
       <c r="T26">
-        <v>0.1407</v>
+        <v>0.14069999999999999</v>
       </c>
       <c r="W26">
-        <v>0.1407</v>
+        <v>0.14069999999999999</v>
       </c>
       <c r="Y26">
         <v>1</v>
@@ -2742,7 +2758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:65">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>618</v>
       </c>
@@ -2789,7 +2805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:65">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>619</v>
       </c>
@@ -2836,7 +2852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:65">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>725</v>
       </c>
@@ -2856,10 +2872,10 @@
         <v>160000000</v>
       </c>
       <c r="T29">
-        <v>0.1577</v>
+        <v>0.15770000000000001</v>
       </c>
       <c r="W29">
-        <v>0.1577</v>
+        <v>0.15770000000000001</v>
       </c>
       <c r="Y29">
         <v>1</v>
@@ -2883,7 +2899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:65">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>726</v>
       </c>
@@ -2903,10 +2919,10 @@
         <v>250000000</v>
       </c>
       <c r="T30">
-        <v>0.1634</v>
+        <v>0.16339999999999999</v>
       </c>
       <c r="W30">
-        <v>0.1634</v>
+        <v>0.16339999999999999</v>
       </c>
       <c r="Y30">
         <v>1</v>
@@ -2930,7 +2946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:65">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>727</v>
       </c>
@@ -2950,10 +2966,10 @@
         <v>500000000</v>
       </c>
       <c r="T31">
-        <v>0.169</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="W31">
-        <v>0.169</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="Y31">
         <v>1</v>
@@ -2977,7 +2993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:65">
+    <row r="32" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>59176</v>
       </c>
@@ -2997,10 +3013,10 @@
         <v>1000000000</v>
       </c>
       <c r="T32">
-        <v>0.1747</v>
+        <v>0.17469999999999999</v>
       </c>
       <c r="W32">
-        <v>0.1747</v>
+        <v>0.17469999999999999</v>
       </c>
       <c r="Y32">
         <v>1</v>
@@ -3024,7 +3040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:65">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>65447</v>
       </c>
@@ -3044,10 +3060,10 @@
         <v>1500000000</v>
       </c>
       <c r="T33">
-        <v>0.1803</v>
+        <v>0.18029999999999999</v>
       </c>
       <c r="W33">
-        <v>0.1803</v>
+        <v>0.18029999999999999</v>
       </c>
       <c r="Y33">
         <v>1</v>
@@ -3071,7 +3087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:65">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>296166</v>
       </c>
@@ -3091,10 +3107,10 @@
         <v>2000000000</v>
       </c>
       <c r="T34">
-        <v>0.1916</v>
+        <v>0.19159999999999999</v>
       </c>
       <c r="W34">
-        <v>0.1916</v>
+        <v>0.19159999999999999</v>
       </c>
       <c r="Y34">
         <v>1</v>
@@ -3118,7 +3134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:65">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>65448</v>
       </c>
@@ -3168,7 +3184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:65">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>65449</v>
       </c>
@@ -3188,10 +3204,10 @@
         <v>2200000000</v>
       </c>
       <c r="T36">
-        <v>0.203</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="W36">
-        <v>0.203</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="Y36">
         <v>1</v>
@@ -3218,7 +3234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:65">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>65450</v>
       </c>
@@ -3238,10 +3254,10 @@
         <v>2300000000</v>
       </c>
       <c r="T37">
-        <v>0.2086</v>
+        <v>0.20860000000000001</v>
       </c>
       <c r="W37">
-        <v>0.2086</v>
+        <v>0.20860000000000001</v>
       </c>
       <c r="Y37">
         <v>1</v>
@@ -3268,7 +3284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:65">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>65451</v>
       </c>
@@ -3288,10 +3304,10 @@
         <v>2400000000</v>
       </c>
       <c r="T38">
-        <v>0.2143</v>
+        <v>0.21429999999999999</v>
       </c>
       <c r="W38">
-        <v>0.2143</v>
+        <v>0.21429999999999999</v>
       </c>
       <c r="Y38">
         <v>1</v>
@@ -3318,7 +3334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:65">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>155147</v>
       </c>
@@ -3338,10 +3354,10 @@
         <v>2800000000</v>
       </c>
       <c r="T39">
-        <v>0.2199</v>
+        <v>0.21990000000000001</v>
       </c>
       <c r="W39">
-        <v>0.2199</v>
+        <v>0.21990000000000001</v>
       </c>
       <c r="Y39">
         <v>1</v>
@@ -3362,13 +3378,13 @@
         <v>1</v>
       </c>
       <c r="AW39">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="BI39">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:65">
+    <row r="40" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>155148</v>
       </c>
@@ -3388,10 +3404,10 @@
         <v>3200000000</v>
       </c>
       <c r="T40">
-        <v>0.2256</v>
+        <v>0.22559999999999999</v>
       </c>
       <c r="W40">
-        <v>0.2256</v>
+        <v>0.22559999999999999</v>
       </c>
       <c r="Y40">
         <v>1</v>
@@ -3418,7 +3434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:65">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>94129</v>
       </c>
@@ -3438,10 +3454,10 @@
         <v>3300000000</v>
       </c>
       <c r="T41">
-        <v>0.2312</v>
+        <v>0.23119999999999999</v>
       </c>
       <c r="W41">
-        <v>0.2312</v>
+        <v>0.23119999999999999</v>
       </c>
       <c r="Y41">
         <v>1</v>
@@ -3468,7 +3484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:65">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>94130</v>
       </c>
@@ -3518,7 +3534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:65">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>155149</v>
       </c>
@@ -3538,10 +3554,10 @@
         <v>3700000000</v>
       </c>
       <c r="T43">
-        <v>0.2425</v>
+        <v>0.24249999999999999</v>
       </c>
       <c r="W43">
-        <v>0.2425</v>
+        <v>0.24249999999999999</v>
       </c>
       <c r="Y43">
         <v>1</v>
@@ -3568,7 +3584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:65">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>165605</v>
       </c>
@@ -3618,7 +3634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:65">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>94133</v>
       </c>
@@ -3638,10 +3654,10 @@
         <v>4400000000</v>
       </c>
       <c r="T45">
-        <v>0.2539</v>
+        <v>0.25390000000000001</v>
       </c>
       <c r="W45">
-        <v>0.2539</v>
+        <v>0.25390000000000001</v>
       </c>
       <c r="Y45">
         <v>1</v>
@@ -3668,7 +3684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:65">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>94134</v>
       </c>
@@ -3688,10 +3704,10 @@
         <v>4600000000</v>
       </c>
       <c r="T46">
-        <v>0.2595</v>
+        <v>0.25950000000000001</v>
       </c>
       <c r="W46">
-        <v>0.2595</v>
+        <v>0.25950000000000001</v>
       </c>
       <c r="Y46">
         <v>1</v>
@@ -3718,7 +3734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:65">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>94135</v>
       </c>
@@ -3738,10 +3754,10 @@
         <v>5000000000</v>
       </c>
       <c r="T47">
-        <v>0.2652</v>
+        <v>0.26519999999999999</v>
       </c>
       <c r="W47">
-        <v>0.2652</v>
+        <v>0.26519999999999999</v>
       </c>
       <c r="Y47">
         <v>1</v>
@@ -3768,7 +3784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:65">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>165606</v>
       </c>
@@ -3788,10 +3804,10 @@
         <v>5300000000</v>
       </c>
       <c r="T48">
-        <v>0.2708</v>
+        <v>0.27079999999999999</v>
       </c>
       <c r="W48">
-        <v>0.2708</v>
+        <v>0.27079999999999999</v>
       </c>
       <c r="Y48">
         <v>1</v>
@@ -3818,7 +3834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:65">
+    <row r="49" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>165607</v>
       </c>
@@ -3838,10 +3854,10 @@
         <v>5600000000</v>
       </c>
       <c r="T49">
-        <v>0.2765</v>
+        <v>0.27650000000000002</v>
       </c>
       <c r="W49">
-        <v>0.2765</v>
+        <v>0.27650000000000002</v>
       </c>
       <c r="Y49">
         <v>1</v>
@@ -3868,7 +3884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:65">
+    <row r="50" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>94138</v>
       </c>
@@ -3888,10 +3904,10 @@
         <v>5800000000</v>
       </c>
       <c r="T50">
-        <v>0.2821</v>
+        <v>0.28210000000000002</v>
       </c>
       <c r="W50">
-        <v>0.2821</v>
+        <v>0.28210000000000002</v>
       </c>
       <c r="Y50">
         <v>1</v>
@@ -3918,7 +3934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:65">
+    <row r="51" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>165608</v>
       </c>
@@ -3968,7 +3984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:65">
+    <row r="52" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>165609</v>
       </c>
@@ -3988,10 +4004,10 @@
         <v>6300000000</v>
       </c>
       <c r="T52">
-        <v>0.2934</v>
+        <v>0.29339999999999999</v>
       </c>
       <c r="W52">
-        <v>0.2934</v>
+        <v>0.29339999999999999</v>
       </c>
       <c r="Y52">
         <v>1</v>
@@ -4018,7 +4034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:65">
+    <row r="53" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>94141</v>
       </c>
@@ -4038,10 +4054,10 @@
         <v>10000000000</v>
       </c>
       <c r="T53">
-        <v>0.2991</v>
+        <v>0.29909999999999998</v>
       </c>
       <c r="W53">
-        <v>0.2991</v>
+        <v>0.29909999999999998</v>
       </c>
       <c r="Y53">
         <v>1</v>
@@ -4068,7 +4084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:65">
+    <row r="54" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>94142</v>
       </c>
@@ -4088,10 +4104,10 @@
         <v>12000000000</v>
       </c>
       <c r="T54">
-        <v>0.3048</v>
+        <v>0.30480000000000002</v>
       </c>
       <c r="W54">
-        <v>0.3048</v>
+        <v>0.30480000000000002</v>
       </c>
       <c r="Y54">
         <v>1</v>
@@ -4118,7 +4134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:65">
+    <row r="55" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>296167</v>
       </c>
@@ -4138,10 +4154,10 @@
         <v>16000000000</v>
       </c>
       <c r="T55">
-        <v>0.3104</v>
+        <v>0.31040000000000001</v>
       </c>
       <c r="W55">
-        <v>0.3104</v>
+        <v>0.31040000000000001</v>
       </c>
       <c r="Y55">
         <v>1</v>
@@ -4168,7 +4184,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:65">
+    <row r="56" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>296168</v>
       </c>
@@ -4188,10 +4204,10 @@
         <v>18000000000</v>
       </c>
       <c r="T56">
-        <v>0.3161</v>
+        <v>0.31609999999999999</v>
       </c>
       <c r="W56">
-        <v>0.3161</v>
+        <v>0.31609999999999999</v>
       </c>
       <c r="Y56">
         <v>1</v>
@@ -4218,7 +4234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:65">
+    <row r="57" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>296169</v>
       </c>
@@ -4238,10 +4254,10 @@
         <v>22000000000</v>
       </c>
       <c r="T57">
-        <v>0.3217</v>
+        <v>0.32169999999999999</v>
       </c>
       <c r="W57">
-        <v>0.3217</v>
+        <v>0.32169999999999999</v>
       </c>
       <c r="Y57">
         <v>1</v>
@@ -4268,7 +4284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:65">
+    <row r="58" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>296170</v>
       </c>
@@ -4288,10 +4304,10 @@
         <v>24000000000</v>
       </c>
       <c r="T58">
-        <v>0.3274</v>
+        <v>0.32740000000000002</v>
       </c>
       <c r="W58">
-        <v>0.3274</v>
+        <v>0.32740000000000002</v>
       </c>
       <c r="Y58">
         <v>1</v>
@@ -4318,7 +4334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:65">
+    <row r="59" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>296171</v>
       </c>
@@ -4338,10 +4354,10 @@
         <v>26000000000</v>
       </c>
       <c r="T59">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="W59">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="Y59">
         <v>1</v>
@@ -4368,7 +4384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:65">
+    <row r="60" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>296172</v>
       </c>
@@ -4418,7 +4434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:65">
+    <row r="61" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>296173</v>
       </c>
@@ -4438,10 +4454,10 @@
         <v>30000000000</v>
       </c>
       <c r="T61">
-        <v>0.3443</v>
+        <v>0.34429999999999999</v>
       </c>
       <c r="W61">
-        <v>0.3443</v>
+        <v>0.34429999999999999</v>
       </c>
       <c r="Y61">
         <v>1</v>
@@ -4468,7 +4484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:65">
+    <row r="62" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>296174</v>
       </c>
@@ -4500,7 +4516,7 @@
         <v>395</v>
       </c>
       <c r="AB62">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AC62" t="s">
         <v>68</v>
@@ -4518,7 +4534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:65">
+    <row r="63" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>135</v>
       </c>
@@ -4538,10 +4554,10 @@
         <v>10</v>
       </c>
       <c r="U63">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="W63">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Y63">
         <v>1</v>
@@ -4562,7 +4578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:65">
+    <row r="64" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>136</v>
       </c>
@@ -4582,10 +4598,10 @@
         <v>25</v>
       </c>
       <c r="U64">
-        <v>0.0108</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="W64">
-        <v>0.0108</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="Y64">
         <v>1</v>
@@ -4606,7 +4622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:65">
+    <row r="65" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>137</v>
       </c>
@@ -4626,10 +4642,10 @@
         <v>75</v>
       </c>
       <c r="U65">
-        <v>0.0167</v>
+        <v>1.67E-2</v>
       </c>
       <c r="W65">
-        <v>0.0167</v>
+        <v>1.67E-2</v>
       </c>
       <c r="Y65">
         <v>1</v>
@@ -4650,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:65">
+    <row r="66" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>138</v>
       </c>
@@ -4670,10 +4686,10 @@
         <v>150</v>
       </c>
       <c r="U66">
-        <v>0.0225</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="W66">
-        <v>0.0225</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="Y66">
         <v>1</v>
@@ -4694,7 +4710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:65">
+    <row r="67" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>139</v>
       </c>
@@ -4714,10 +4730,10 @@
         <v>250</v>
       </c>
       <c r="U67">
-        <v>0.0284</v>
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="W67">
-        <v>0.0284</v>
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="Y67">
         <v>1</v>
@@ -4738,7 +4754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:65">
+    <row r="68" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>141</v>
       </c>
@@ -4758,10 +4774,10 @@
         <v>750</v>
       </c>
       <c r="U68">
-        <v>0.0342</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="W68">
-        <v>0.0342</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="Y68">
         <v>1</v>
@@ -4782,7 +4798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:65">
+    <row r="69" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>142</v>
       </c>
@@ -4802,10 +4818,10 @@
         <v>1000</v>
       </c>
       <c r="U69">
-        <v>0.0401</v>
+        <v>4.0099999999999997E-2</v>
       </c>
       <c r="W69">
-        <v>0.0401</v>
+        <v>4.0099999999999997E-2</v>
       </c>
       <c r="Y69">
         <v>1</v>
@@ -4823,7 +4839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:65">
+    <row r="70" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>143</v>
       </c>
@@ -4843,10 +4859,10 @@
         <v>1500</v>
       </c>
       <c r="U70">
-        <v>0.0459</v>
+        <v>4.5900000000000003E-2</v>
       </c>
       <c r="W70">
-        <v>0.0459</v>
+        <v>4.5900000000000003E-2</v>
       </c>
       <c r="Y70">
         <v>1</v>
@@ -4864,7 +4880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:65">
+    <row r="71" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>144</v>
       </c>
@@ -4884,10 +4900,10 @@
         <v>3000</v>
       </c>
       <c r="U71">
-        <v>0.0518</v>
+        <v>5.1799999999999999E-2</v>
       </c>
       <c r="W71">
-        <v>0.0518</v>
+        <v>5.1799999999999999E-2</v>
       </c>
       <c r="Y71">
         <v>1</v>
@@ -4905,7 +4921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:65">
+    <row r="72" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>145</v>
       </c>
@@ -4925,10 +4941,10 @@
         <v>5000</v>
       </c>
       <c r="U72">
-        <v>0.0576</v>
+        <v>5.7599999999999998E-2</v>
       </c>
       <c r="W72">
-        <v>0.0576</v>
+        <v>5.7599999999999998E-2</v>
       </c>
       <c r="Y72">
         <v>1</v>
@@ -4946,7 +4962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:65">
+    <row r="73" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>146</v>
       </c>
@@ -4966,10 +4982,10 @@
         <v>7000</v>
       </c>
       <c r="U73">
-        <v>0.0635</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="W73">
-        <v>0.0635</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="Y73">
         <v>1</v>
@@ -4987,7 +5003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:65">
+    <row r="74" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>147</v>
       </c>
@@ -5007,10 +5023,10 @@
         <v>10000</v>
       </c>
       <c r="U74">
-        <v>0.0693</v>
+        <v>6.93E-2</v>
       </c>
       <c r="W74">
-        <v>0.0693</v>
+        <v>6.93E-2</v>
       </c>
       <c r="Y74">
         <v>1</v>
@@ -5028,7 +5044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:65">
+    <row r="75" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>148</v>
       </c>
@@ -5048,10 +5064,10 @@
         <v>15000</v>
       </c>
       <c r="U75">
-        <v>0.0752</v>
+        <v>7.5200000000000003E-2</v>
       </c>
       <c r="W75">
-        <v>0.0752</v>
+        <v>7.5200000000000003E-2</v>
       </c>
       <c r="Y75">
         <v>1</v>
@@ -5069,7 +5085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:65">
+    <row r="76" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>149</v>
       </c>
@@ -5089,10 +5105,10 @@
         <v>30000</v>
       </c>
       <c r="U76">
-        <v>0.081</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="W76">
-        <v>0.081</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="Y76">
         <v>1</v>
@@ -5110,7 +5126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:65">
+    <row r="77" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>150</v>
       </c>
@@ -5130,10 +5146,10 @@
         <v>60000</v>
       </c>
       <c r="U77">
-        <v>0.0869</v>
+        <v>8.6900000000000005E-2</v>
       </c>
       <c r="W77">
-        <v>0.0869</v>
+        <v>8.6900000000000005E-2</v>
       </c>
       <c r="Y77">
         <v>1</v>
@@ -5151,7 +5167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:65">
+    <row r="78" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>394</v>
       </c>
@@ -5171,10 +5187,10 @@
         <v>120000</v>
       </c>
       <c r="U78">
-        <v>0.0927</v>
+        <v>9.2700000000000005E-2</v>
       </c>
       <c r="W78">
-        <v>0.0927</v>
+        <v>9.2700000000000005E-2</v>
       </c>
       <c r="Y78">
         <v>1</v>
@@ -5192,7 +5208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:65">
+    <row r="79" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>405</v>
       </c>
@@ -5212,10 +5228,10 @@
         <v>180000</v>
       </c>
       <c r="U79">
-        <v>0.0986</v>
+        <v>9.8599999999999993E-2</v>
       </c>
       <c r="W79">
-        <v>0.0986</v>
+        <v>9.8599999999999993E-2</v>
       </c>
       <c r="Y79">
         <v>1</v>
@@ -5233,7 +5249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:65">
+    <row r="80" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>416</v>
       </c>
@@ -5253,10 +5269,10 @@
         <v>240000</v>
       </c>
       <c r="U80">
-        <v>0.1044</v>
+        <v>0.10440000000000001</v>
       </c>
       <c r="W80">
-        <v>0.1044</v>
+        <v>0.10440000000000001</v>
       </c>
       <c r="Y80">
         <v>1</v>
@@ -5274,7 +5290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:65">
+    <row r="81" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>440</v>
       </c>
@@ -5315,7 +5331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:65">
+    <row r="82" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>538</v>
       </c>
@@ -5335,10 +5351,10 @@
         <v>350000</v>
       </c>
       <c r="U82">
-        <v>0.1161</v>
+        <v>0.11609999999999999</v>
       </c>
       <c r="W82">
-        <v>0.1161</v>
+        <v>0.11609999999999999</v>
       </c>
       <c r="Y82">
         <v>1</v>
@@ -5356,7 +5372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:65">
+    <row r="83" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>539</v>
       </c>
@@ -5376,10 +5392,10 @@
         <v>500000</v>
       </c>
       <c r="U83">
-        <v>0.1219</v>
+        <v>0.12189999999999999</v>
       </c>
       <c r="W83">
-        <v>0.1219</v>
+        <v>0.12189999999999999</v>
       </c>
       <c r="Y83">
         <v>1</v>
@@ -5397,7 +5413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:65">
+    <row r="84" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>540</v>
       </c>
@@ -5438,7 +5454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:65">
+    <row r="85" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>541</v>
       </c>
@@ -5479,7 +5495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:65">
+    <row r="86" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>620</v>
       </c>
@@ -5499,10 +5515,10 @@
         <v>25000000</v>
       </c>
       <c r="U86">
-        <v>0.1395</v>
+        <v>0.13950000000000001</v>
       </c>
       <c r="W86">
-        <v>0.1395</v>
+        <v>0.13950000000000001</v>
       </c>
       <c r="Y86">
         <v>1</v>
@@ -5520,7 +5536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:65">
+    <row r="87" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>621</v>
       </c>
@@ -5540,10 +5556,10 @@
         <v>40000000</v>
       </c>
       <c r="U87">
-        <v>0.1453</v>
+        <v>0.14530000000000001</v>
       </c>
       <c r="W87">
-        <v>0.1453</v>
+        <v>0.14530000000000001</v>
       </c>
       <c r="Y87">
         <v>1</v>
@@ -5561,7 +5577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:65">
+    <row r="88" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>622</v>
       </c>
@@ -5602,7 +5618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:65">
+    <row r="89" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>623</v>
       </c>
@@ -5643,7 +5659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:65">
+    <row r="90" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>721</v>
       </c>
@@ -5663,10 +5679,10 @@
         <v>160000000</v>
       </c>
       <c r="U90">
-        <v>0.1629</v>
+        <v>0.16289999999999999</v>
       </c>
       <c r="W90">
-        <v>0.1629</v>
+        <v>0.16289999999999999</v>
       </c>
       <c r="Y90">
         <v>1</v>
@@ -5684,7 +5700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:65">
+    <row r="91" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>722</v>
       </c>
@@ -5704,10 +5720,10 @@
         <v>250000000</v>
       </c>
       <c r="U91">
-        <v>0.1687</v>
+        <v>0.16869999999999999</v>
       </c>
       <c r="W91">
-        <v>0.1687</v>
+        <v>0.16869999999999999</v>
       </c>
       <c r="Y91">
         <v>1</v>
@@ -5725,7 +5741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:65">
+    <row r="92" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>723</v>
       </c>
@@ -5745,10 +5761,10 @@
         <v>500000000</v>
       </c>
       <c r="U92">
-        <v>0.1746</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="W92">
-        <v>0.1746</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="Y92">
         <v>1</v>
@@ -5766,7 +5782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:65">
+    <row r="93" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>724</v>
       </c>
@@ -5807,7 +5823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:65">
+    <row r="94" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>59178</v>
       </c>
@@ -5827,10 +5843,10 @@
         <v>2000000000</v>
       </c>
       <c r="U94">
-        <v>0.1863</v>
+        <v>0.18629999999999999</v>
       </c>
       <c r="W94">
-        <v>0.1863</v>
+        <v>0.18629999999999999</v>
       </c>
       <c r="Y94">
         <v>1</v>
@@ -5848,7 +5864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:65">
+    <row r="95" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>65452</v>
       </c>
@@ -5868,10 +5884,10 @@
         <v>2100000000</v>
       </c>
       <c r="U95">
-        <v>0.1921</v>
+        <v>0.19209999999999999</v>
       </c>
       <c r="W95">
-        <v>0.1921</v>
+        <v>0.19209999999999999</v>
       </c>
       <c r="Y95">
         <v>1</v>
@@ -5892,7 +5908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:65">
+    <row r="96" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>65453</v>
       </c>
@@ -5912,10 +5928,10 @@
         <v>2200000000</v>
       </c>
       <c r="U96">
-        <v>0.198</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="W96">
-        <v>0.198</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="Y96">
         <v>1</v>
@@ -5936,7 +5952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:65">
+    <row r="97" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>65454</v>
       </c>
@@ -5956,10 +5972,10 @@
         <v>2300000000</v>
       </c>
       <c r="U97">
-        <v>0.2038</v>
+        <v>0.20380000000000001</v>
       </c>
       <c r="W97">
-        <v>0.2038</v>
+        <v>0.20380000000000001</v>
       </c>
       <c r="Y97">
         <v>1</v>
@@ -5980,7 +5996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:65">
+    <row r="98" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>65455</v>
       </c>
@@ -6024,7 +6040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:65">
+    <row r="99" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>94143</v>
       </c>
@@ -6068,7 +6084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:65">
+    <row r="100" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>94144</v>
       </c>
@@ -6088,10 +6104,10 @@
         <v>3200000000</v>
       </c>
       <c r="U100">
-        <v>0.2214</v>
+        <v>0.22140000000000001</v>
       </c>
       <c r="W100">
-        <v>0.2214</v>
+        <v>0.22140000000000001</v>
       </c>
       <c r="Y100">
         <v>1</v>
@@ -6112,7 +6128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:65">
+    <row r="101" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>94145</v>
       </c>
@@ -6132,10 +6148,10 @@
         <v>3300000000</v>
       </c>
       <c r="U101">
-        <v>0.2272</v>
+        <v>0.22720000000000001</v>
       </c>
       <c r="W101">
-        <v>0.2272</v>
+        <v>0.22720000000000001</v>
       </c>
       <c r="Y101">
         <v>1</v>
@@ -6156,7 +6172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:65">
+    <row r="102" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>94146</v>
       </c>
@@ -6200,7 +6216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:65">
+    <row r="103" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>94147</v>
       </c>
@@ -6244,7 +6260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:65">
+    <row r="104" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>94148</v>
       </c>
@@ -6288,7 +6304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:65">
+    <row r="105" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>94149</v>
       </c>
@@ -6308,10 +6324,10 @@
         <v>4400000000</v>
       </c>
       <c r="U105">
-        <v>0.2506</v>
+        <v>0.25059999999999999</v>
       </c>
       <c r="W105">
-        <v>0.2506</v>
+        <v>0.25059999999999999</v>
       </c>
       <c r="Y105">
         <v>1</v>
@@ -6332,7 +6348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:65">
+    <row r="106" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>165610</v>
       </c>
@@ -6352,10 +6368,10 @@
         <v>4600000000</v>
       </c>
       <c r="U106">
-        <v>0.2564</v>
+        <v>0.25640000000000002</v>
       </c>
       <c r="W106">
-        <v>0.2564</v>
+        <v>0.25640000000000002</v>
       </c>
       <c r="Y106">
         <v>1</v>
@@ -6376,7 +6392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:65">
+    <row r="107" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>94151</v>
       </c>
@@ -6396,10 +6412,10 @@
         <v>5000000000</v>
       </c>
       <c r="U107">
-        <v>0.2623</v>
+        <v>0.26229999999999998</v>
       </c>
       <c r="W107">
-        <v>0.2623</v>
+        <v>0.26229999999999998</v>
       </c>
       <c r="Y107">
         <v>1</v>
@@ -6420,7 +6436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:65">
+    <row r="108" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>94152</v>
       </c>
@@ -6464,7 +6480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:65">
+    <row r="109" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>165611</v>
       </c>
@@ -6484,10 +6500,10 @@
         <v>5600000000</v>
       </c>
       <c r="U109">
-        <v>0.274</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="W109">
-        <v>0.274</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="Y109">
         <v>1</v>
@@ -6508,7 +6524,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:65">
+    <row r="110" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>94154</v>
       </c>
@@ -6528,10 +6544,10 @@
         <v>5800000000</v>
       </c>
       <c r="U110">
-        <v>0.2798</v>
+        <v>0.27979999999999999</v>
       </c>
       <c r="W110">
-        <v>0.2798</v>
+        <v>0.27979999999999999</v>
       </c>
       <c r="Y110">
         <v>1</v>
@@ -6552,7 +6568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:65">
+    <row r="111" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>165612</v>
       </c>
@@ -6572,10 +6588,10 @@
         <v>6000000000</v>
       </c>
       <c r="U111">
-        <v>0.2857</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="W111">
-        <v>0.2857</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="Y111">
         <v>1</v>
@@ -6596,7 +6612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:65">
+    <row r="112" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>94156</v>
       </c>
@@ -6616,10 +6632,10 @@
         <v>6300000000</v>
       </c>
       <c r="U112">
-        <v>0.2915</v>
+        <v>0.29149999999999998</v>
       </c>
       <c r="W112">
-        <v>0.2915</v>
+        <v>0.29149999999999998</v>
       </c>
       <c r="Y112">
         <v>1</v>
@@ -6640,7 +6656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:65">
+    <row r="113" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>94157</v>
       </c>
@@ -6684,7 +6700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:65">
+    <row r="114" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>94158</v>
       </c>
@@ -6704,10 +6720,10 @@
         <v>12000000000</v>
       </c>
       <c r="U114">
-        <v>0.3032</v>
+        <v>0.30320000000000003</v>
       </c>
       <c r="W114">
-        <v>0.3032</v>
+        <v>0.30320000000000003</v>
       </c>
       <c r="Y114">
         <v>1</v>
@@ -6728,7 +6744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:65">
+    <row r="115" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>296175</v>
       </c>
@@ -6748,10 +6764,10 @@
         <v>16000000000</v>
       </c>
       <c r="U115">
-        <v>0.3091</v>
+        <v>0.30909999999999999</v>
       </c>
       <c r="W115">
-        <v>0.3091</v>
+        <v>0.30909999999999999</v>
       </c>
       <c r="Y115">
         <v>1</v>
@@ -6778,7 +6794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:65">
+    <row r="116" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>296176</v>
       </c>
@@ -6798,10 +6814,10 @@
         <v>18000000000</v>
       </c>
       <c r="U116">
-        <v>0.3149</v>
+        <v>0.31490000000000001</v>
       </c>
       <c r="W116">
-        <v>0.3149</v>
+        <v>0.31490000000000001</v>
       </c>
       <c r="Y116">
         <v>1</v>
@@ -6828,7 +6844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:65">
+    <row r="117" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>296177</v>
       </c>
@@ -6848,10 +6864,10 @@
         <v>22000000000</v>
       </c>
       <c r="U117">
-        <v>0.3208</v>
+        <v>0.32079999999999997</v>
       </c>
       <c r="W117">
-        <v>0.3208</v>
+        <v>0.32079999999999997</v>
       </c>
       <c r="Y117">
         <v>1</v>
@@ -6878,7 +6894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:65">
+    <row r="118" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>296178</v>
       </c>
@@ -6928,7 +6944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:65">
+    <row r="119" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>296179</v>
       </c>
@@ -6948,10 +6964,10 @@
         <v>26000000000</v>
       </c>
       <c r="U119">
-        <v>0.3325</v>
+        <v>0.33250000000000002</v>
       </c>
       <c r="W119">
-        <v>0.3325</v>
+        <v>0.33250000000000002</v>
       </c>
       <c r="Y119">
         <v>1</v>
@@ -6978,7 +6994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:65">
+    <row r="120" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>296180</v>
       </c>
@@ -6998,10 +7014,10 @@
         <v>28000000000</v>
       </c>
       <c r="U120">
-        <v>0.3383</v>
+        <v>0.33829999999999999</v>
       </c>
       <c r="W120">
-        <v>0.3383</v>
+        <v>0.33829999999999999</v>
       </c>
       <c r="Y120">
         <v>1</v>
@@ -7028,7 +7044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:65">
+    <row r="121" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>296181</v>
       </c>
@@ -7048,10 +7064,10 @@
         <v>30000000000</v>
       </c>
       <c r="U121">
-        <v>0.3442</v>
+        <v>0.34420000000000001</v>
       </c>
       <c r="W121">
-        <v>0.3442</v>
+        <v>0.34420000000000001</v>
       </c>
       <c r="Y121">
         <v>1</v>
@@ -7078,7 +7094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:65">
+    <row r="122" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>296182</v>
       </c>
@@ -7110,7 +7126,7 @@
         <v>395</v>
       </c>
       <c r="AB122">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AC122" t="s">
         <v>68</v>
@@ -7129,18 +7145,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>